--- a/static/schedule.xlsx
+++ b/static/schedule.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Desktop\projects\ssa-200\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{248D0F72-C925-406C-8174-8FD041F35AD0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F689857B-9BD6-447E-BDB5-A8AD32904854}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8424" xr2:uid="{97D70F69-AB00-4F24-81FE-0B1143C66DBF}"/>
   </bookViews>
   <sheets>
-    <sheet name="houston oct 23-24" sheetId="1" r:id="rId1"/>
+    <sheet name="times" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
   <si>
     <t>topic</t>
   </si>
@@ -96,6 +97,15 @@
   </si>
   <si>
     <t>activity 4</t>
+  </si>
+  <si>
+    <t>time-houston</t>
+  </si>
+  <si>
+    <t>time-la</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -447,10 +457,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DD387B-D5A7-4B34-9391-6003BCEFB1FA}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>800</v>
+      </c>
+      <c r="C2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>845</v>
+      </c>
+      <c r="C3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>925</v>
+      </c>
+      <c r="C4">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>945</v>
+      </c>
+      <c r="C5">
+        <v>920</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>1700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A289EE-3D24-485F-A10D-A2FEF3D9AD6C}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,201 +738,129 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>845</v>
-      </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>925</v>
+        <v>845</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>945</v>
-      </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1000</v>
-      </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1050</v>
-      </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1200</v>
-      </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1305</v>
-      </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1335</v>
-      </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1420</v>
-      </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1445</v>
-      </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1600</v>
-      </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1700</v>
-      </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>800</v>
-      </c>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>825</v>
-      </c>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>840</v>
-      </c>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>930</v>
-      </c>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>945</v>
-      </c>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>1020</v>
-      </c>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>1200</v>
-      </c>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>1300</v>
-      </c>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>1340</v>
-      </c>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>1430</v>
-      </c>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>1450</v>
-      </c>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>1600</v>
-      </c>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>1700</v>
-      </c>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>13</v>
       </c>

--- a/static/schedule.xlsx
+++ b/static/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Desktop\projects\ssa-200\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F689857B-9BD6-447E-BDB5-A8AD32904854}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFF5703-6919-4087-A050-C1C0EF436794}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8424" xr2:uid="{97D70F69-AB00-4F24-81FE-0B1143C66DBF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
   <si>
     <t>topic</t>
   </si>
@@ -460,7 +460,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,6 +534,9 @@
       <c r="B6">
         <v>1000</v>
       </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -542,6 +545,9 @@
       <c r="B7">
         <v>1050</v>
       </c>
+      <c r="C7">
+        <v>1045</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -550,6 +556,9 @@
       <c r="B8">
         <v>1200</v>
       </c>
+      <c r="C8">
+        <v>1145</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -558,6 +567,9 @@
       <c r="B9">
         <v>1305</v>
       </c>
+      <c r="C9">
+        <v>1305</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -565,6 +577,9 @@
       </c>
       <c r="B10">
         <v>1335</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">

--- a/static/schedule.xlsx
+++ b/static/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Desktop\projects\ssa-200\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFF5703-6919-4087-A050-C1C0EF436794}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876514A0-5D55-41AE-9451-938257F74A55}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8424" xr2:uid="{97D70F69-AB00-4F24-81FE-0B1143C66DBF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
   <si>
     <t>topic</t>
   </si>
@@ -460,7 +460,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,8 +578,8 @@
       <c r="B10">
         <v>1335</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
+      <c r="C10">
+        <v>1345</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">

--- a/static/schedule.xlsx
+++ b/static/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Desktop\projects\ssa-200\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876514A0-5D55-41AE-9451-938257F74A55}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45B7E0D-3921-4B6C-B3BD-1DC99EEB6394}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8424" xr2:uid="{97D70F69-AB00-4F24-81FE-0B1143C66DBF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
   <si>
     <t>topic</t>
   </si>
@@ -460,7 +460,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,7 +579,7 @@
         <v>1335</v>
       </c>
       <c r="C10">
-        <v>1345</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -589,6 +589,12 @@
       <c r="B11">
         <v>1420</v>
       </c>
+      <c r="C11">
+        <v>1430</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -597,6 +603,9 @@
       <c r="B12">
         <v>1445</v>
       </c>
+      <c r="C12">
+        <v>1445</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -605,6 +614,9 @@
       <c r="B13">
         <v>1600</v>
       </c>
+      <c r="C13">
+        <v>1600</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -613,24 +625,33 @@
       <c r="B14">
         <v>1700</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17">
         <v>800</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18">
         <v>825</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -638,7 +659,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -646,7 +667,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -654,7 +675,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -662,7 +683,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -670,7 +691,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -678,7 +699,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -686,7 +707,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -694,7 +715,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -702,7 +723,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -710,7 +731,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>

--- a/static/schedule.xlsx
+++ b/static/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Desktop\projects\ssa-200\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45B7E0D-3921-4B6C-B3BD-1DC99EEB6394}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC39E6C-F81E-4CFC-95AB-A09726C4A901}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8424" xr2:uid="{97D70F69-AB00-4F24-81FE-0B1143C66DBF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>topic</t>
   </si>
@@ -460,7 +460,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,6 +658,9 @@
       <c r="B19">
         <v>840</v>
       </c>
+      <c r="C19">
+        <v>820</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -665,6 +668,9 @@
       </c>
       <c r="B20">
         <v>930</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">

--- a/static/schedule.xlsx
+++ b/static/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Desktop\projects\ssa-200\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC39E6C-F81E-4CFC-95AB-A09726C4A901}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFC86FC-ED26-4EBD-B2EF-4AA47FB77F8F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8424" xr2:uid="{97D70F69-AB00-4F24-81FE-0B1143C66DBF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="times" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
   <si>
     <t>topic</t>
   </si>
@@ -106,6 +107,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>break (team building)</t>
   </si>
 </sst>
 </file>
@@ -459,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DD387B-D5A7-4B34-9391-6003BCEFB1FA}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,80 +636,103 @@
         <v>1630</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>800</v>
+      </c>
+      <c r="C16">
+        <v>800</v>
+      </c>
+    </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>800</v>
+        <v>825</v>
       </c>
       <c r="C17">
-        <v>800</v>
+        <v>805</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>825</v>
+        <v>840</v>
       </c>
       <c r="C18">
-        <v>805</v>
+        <v>820</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>840</v>
+        <v>930</v>
       </c>
       <c r="C19">
-        <v>820</v>
+        <v>930</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21">
+        <v>1020</v>
+      </c>
+      <c r="C21">
         <v>945</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B22">
-        <v>1020</v>
+        <v>1200</v>
+      </c>
+      <c r="C22">
+        <v>1200</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>1200</v>
+        <v>1300</v>
+      </c>
+      <c r="C23">
+        <v>1305</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24">
-        <v>1300</v>
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>1345</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -712,13 +742,19 @@
       <c r="B25">
         <v>1340</v>
       </c>
+      <c r="C25">
+        <v>1400</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>1430</v>
+      </c>
+      <c r="C26">
+        <v>1510</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -727,6 +763,9 @@
       </c>
       <c r="B27">
         <v>1450</v>
+      </c>
+      <c r="C27">
+        <v>1530</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
